--- a/observations/summary_files/mtp089/NOMAD_egress_solar_occulations_summary.xlsx
+++ b/observations/summary_files/mtp089/NOMAD_egress_solar_occulations_summary.xlsx
@@ -4127,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>3221</v>
+        <v>3205</v>
       </c>
       <c r="BK13" t="n">
-        <v>3221</v>
+        <v>3205</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -4366,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="BJ14" t="n">
-        <v>3241</v>
+        <v>3205</v>
       </c>
       <c r="BK14" t="n">
-        <v>3241</v>
+        <v>3205</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
